--- a/Planilhas Tratadas/Tipo RAÇA NACIONAL.xlsx
+++ b/Planilhas Tratadas/Tipo RAÇA NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,8 +509,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>92248</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92248</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -525,17 +527,25 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>45906</v>
-      </c>
-      <c r="J2" t="n">
-        <v>42845</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>27330</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>45906</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>42845</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3062</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>27330</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -557,8 +567,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>91208</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91208</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -573,17 +585,25 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>46272</v>
-      </c>
-      <c r="J3" t="n">
-        <v>43401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2871</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26251</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>46272</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>43401</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>26251</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -605,8 +625,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>90763</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90763</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -621,17 +643,25 @@
       <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>46189</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43537</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2652</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26159</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>46189</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>43537</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2652</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>26159</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -653,8 +683,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>90074</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90074</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -669,17 +701,25 @@
       <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>45899</v>
-      </c>
-      <c r="J5" t="n">
-        <v>43390</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2509</v>
-      </c>
-      <c r="L5" t="n">
-        <v>26130</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>45899</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2509</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>26130</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -701,8 +741,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>89691</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89691</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -717,17 +759,25 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>45562</v>
-      </c>
-      <c r="J6" t="n">
-        <v>42670</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2892</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26194</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>45562</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>42670</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2892</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>26194</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -749,8 +799,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>90270</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90270</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -765,17 +817,25 @@
       <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>46118</v>
-      </c>
-      <c r="J7" t="n">
-        <v>43349</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2769</v>
-      </c>
-      <c r="L7" t="n">
-        <v>26080</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>46118</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>43349</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>26080</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -797,8 +857,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>91467</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91467</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -813,17 +875,25 @@
       <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>46395</v>
-      </c>
-      <c r="J8" t="n">
-        <v>43753</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2642</v>
-      </c>
-      <c r="L8" t="n">
-        <v>26611</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>46395</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>43753</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>26611</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -845,8 +915,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>91059</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91059</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -861,17 +933,25 @@
       <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>46040</v>
-      </c>
-      <c r="J9" t="n">
-        <v>43714</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2326</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26905</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>46040</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>43714</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>26905</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -893,8 +973,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>91336</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91336</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -909,17 +991,25 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>46095</v>
-      </c>
-      <c r="J10" t="n">
-        <v>43399</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2696</v>
-      </c>
-      <c r="L10" t="n">
-        <v>27188</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>46095</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>43399</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2696</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>27188</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -941,8 +1031,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>91240</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91240</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -957,17 +1049,25 @@
       <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>46175</v>
-      </c>
-      <c r="J11" t="n">
-        <v>43600</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2575</v>
-      </c>
-      <c r="L11" t="n">
-        <v>27232</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>46175</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>43600</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>27232</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -989,8 +1089,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>90450</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90450</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1005,17 +1107,25 @@
       <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>45735</v>
-      </c>
-      <c r="J12" t="n">
-        <v>43158</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2577</v>
-      </c>
-      <c r="L12" t="n">
-        <v>26960</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>45735</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>43158</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>26960</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1037,8 +1147,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>90546</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90546</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1053,17 +1165,25 @@
       <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>45890</v>
-      </c>
-      <c r="J13" t="n">
-        <v>43400</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2490</v>
-      </c>
-      <c r="L13" t="n">
-        <v>26958</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>45890</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>43400</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>26958</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1085,8 +1205,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>90187</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90187</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1101,17 +1223,25 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>45728</v>
-      </c>
-      <c r="J14" t="n">
-        <v>42744</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2984</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26792</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>45728</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>42744</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2984</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>26792</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1133,8 +1263,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>91158</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91158</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1149,17 +1281,25 @@
       <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>46450</v>
-      </c>
-      <c r="J15" t="n">
-        <v>43261</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3189</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26899</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>46450</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>43261</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>26899</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1181,8 +1321,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>91347</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91347</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1197,17 +1339,25 @@
       <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>46560</v>
-      </c>
-      <c r="J16" t="n">
-        <v>43144</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3416</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26874</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>46560</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>43144</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>26874</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1229,8 +1379,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>91283</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91283</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1245,17 +1397,25 @@
       <c r="H17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
-        <v>46801</v>
-      </c>
-      <c r="J17" t="n">
-        <v>43306</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3494</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26672</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>46801</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>43306</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>3494</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>26672</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1277,8 +1437,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>90401</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90401</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1293,17 +1455,25 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>46456</v>
-      </c>
-      <c r="J18" t="n">
-        <v>42314</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4142</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26554</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>46456</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>42314</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>26554</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1325,8 +1495,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>91150</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91150</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1341,17 +1513,25 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>46901</v>
-      </c>
-      <c r="J19" t="n">
-        <v>42525</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4376</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26529</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>46901</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>42525</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>26529</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1373,8 +1553,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>90555</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90555</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1389,17 +1571,25 @@
       <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
-        <v>46371</v>
-      </c>
-      <c r="J20" t="n">
-        <v>41895</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4477</v>
-      </c>
-      <c r="L20" t="n">
-        <v>26698</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>46371</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>41895</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>26698</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1421,8 +1611,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>89196</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89196</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1437,17 +1629,25 @@
       <c r="H21" t="n">
         <v>4</v>
       </c>
-      <c r="I21" t="n">
-        <v>45951</v>
-      </c>
-      <c r="J21" t="n">
-        <v>41538</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4412</v>
-      </c>
-      <c r="L21" t="n">
-        <v>25991</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>45951</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>41538</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>25991</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1469,8 +1669,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>89167</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89167</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1485,17 +1687,25 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>46136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>41067</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5069</v>
-      </c>
-      <c r="L22" t="n">
-        <v>25853</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>46136</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>41067</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>25853</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1517,8 +1727,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>89378</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89378</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1533,17 +1745,25 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>46125</v>
-      </c>
-      <c r="J23" t="n">
-        <v>41332</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4793</v>
-      </c>
-      <c r="L23" t="n">
-        <v>25864</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>46125</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>41332</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4793</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>25864</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1565,8 +1785,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>89884</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89884</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1581,17 +1803,25 @@
       <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>46485</v>
-      </c>
-      <c r="J24" t="n">
-        <v>41857</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4628</v>
-      </c>
-      <c r="L24" t="n">
-        <v>25793</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>46485</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>41857</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>25793</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1613,8 +1843,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>88963</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88963</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1629,17 +1861,25 @@
       <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
-        <v>46104</v>
-      </c>
-      <c r="J25" t="n">
-        <v>41696</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4408</v>
-      </c>
-      <c r="L25" t="n">
-        <v>25501</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>46104</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>41696</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>25501</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1661,8 +1901,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>88658</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88658</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1677,17 +1919,25 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>45837</v>
-      </c>
-      <c r="J26" t="n">
-        <v>40976</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4861</v>
-      </c>
-      <c r="L26" t="n">
-        <v>25599</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>45837</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>40976</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4861</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>25599</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1709,8 +1959,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>88868</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88868</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1725,17 +1977,25 @@
       <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>45762</v>
-      </c>
-      <c r="J27" t="n">
-        <v>41184</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4578</v>
-      </c>
-      <c r="L27" t="n">
-        <v>25793</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>45762</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>41184</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>25793</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1757,8 +2017,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>89250</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89250</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1773,17 +2035,25 @@
       <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>46273</v>
-      </c>
-      <c r="J28" t="n">
-        <v>41897</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4377</v>
-      </c>
-      <c r="L28" t="n">
-        <v>25602</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>46273</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>41897</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>25602</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1805,8 +2075,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>88589</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88589</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1821,17 +2093,25 @@
       <c r="H29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>45984</v>
-      </c>
-      <c r="J29" t="n">
-        <v>41702</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4282</v>
-      </c>
-      <c r="L29" t="n">
-        <v>25614</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>45984</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>41702</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4282</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>25614</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1853,8 +2133,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>88557</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88557</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1869,17 +2151,25 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>46318</v>
-      </c>
-      <c r="J30" t="n">
-        <v>41559</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4759</v>
-      </c>
-      <c r="L30" t="n">
-        <v>25440</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>46318</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>41559</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>4759</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>25440</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1901,8 +2191,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>88837</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88837</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1917,17 +2209,25 @@
       <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
-        <v>46613</v>
-      </c>
-      <c r="J31" t="n">
-        <v>42137</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4477</v>
-      </c>
-      <c r="L31" t="n">
-        <v>25291</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>46613</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>42137</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>25291</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1949,8 +2249,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>89031</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89031</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1965,17 +2267,25 @@
       <c r="H32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>46468</v>
-      </c>
-      <c r="J32" t="n">
-        <v>42154</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4314</v>
-      </c>
-      <c r="L32" t="n">
-        <v>25567</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>46468</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>42154</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>25567</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1997,8 +2307,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>87849</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87849</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2013,17 +2325,25 @@
       <c r="H33" t="n">
         <v>4</v>
       </c>
-      <c r="I33" t="n">
-        <v>46030</v>
-      </c>
-      <c r="J33" t="n">
-        <v>41999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4032</v>
-      </c>
-      <c r="L33" t="n">
-        <v>25121</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>46030</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>25121</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2045,8 +2365,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>88817</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88817</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2061,17 +2383,25 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>46058</v>
-      </c>
-      <c r="J34" t="n">
-        <v>41512</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4546</v>
-      </c>
-      <c r="L34" t="n">
-        <v>26201</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>46058</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>41512</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>4546</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>26201</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2093,8 +2423,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>90512</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90512</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2109,17 +2441,25 @@
       <c r="H35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
-        <v>43573</v>
-      </c>
-      <c r="J35" t="n">
-        <v>38959</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4614</v>
-      </c>
-      <c r="L35" t="n">
-        <v>30262</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>43573</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>30262</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2141,8 +2481,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>91320</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91320</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2157,17 +2499,25 @@
       <c r="H36" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
-        <v>43371</v>
-      </c>
-      <c r="J36" t="n">
-        <v>38154</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5217</v>
-      </c>
-      <c r="L36" t="n">
-        <v>30889</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>43371</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>38154</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>5217</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>30889</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2189,8 +2539,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>92184</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92184</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2205,17 +2557,25 @@
       <c r="H37" t="n">
         <v>4</v>
       </c>
-      <c r="I37" t="n">
-        <v>45246</v>
-      </c>
-      <c r="J37" t="n">
-        <v>39983</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5263</v>
-      </c>
-      <c r="L37" t="n">
-        <v>29954</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>45246</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>39983</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>29954</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2237,8 +2597,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>92289</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92289</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2253,17 +2615,25 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>45249</v>
-      </c>
-      <c r="J38" t="n">
-        <v>39792</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5456</v>
-      </c>
-      <c r="L38" t="n">
-        <v>30095</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>45249</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>39792</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>5456</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>30095</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2285,8 +2655,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>92240</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92240</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2301,17 +2673,25 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>45961</v>
-      </c>
-      <c r="J39" t="n">
-        <v>40563</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5398</v>
-      </c>
-      <c r="L39" t="n">
-        <v>29120</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>45961</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>40563</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>29120</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2333,8 +2713,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>92029</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92029</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2349,17 +2731,25 @@
       <c r="H40" t="n">
         <v>3</v>
       </c>
-      <c r="I40" t="n">
-        <v>46539</v>
-      </c>
-      <c r="J40" t="n">
-        <v>41740</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4799</v>
-      </c>
-      <c r="L40" t="n">
-        <v>28241</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>46539</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>41740</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>28241</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2381,8 +2771,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>91770</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91770</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2397,17 +2789,25 @@
       <c r="H41" t="n">
         <v>4</v>
       </c>
-      <c r="I41" t="n">
-        <v>47083</v>
-      </c>
-      <c r="J41" t="n">
-        <v>42834</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4249</v>
-      </c>
-      <c r="L41" t="n">
-        <v>27546</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>47083</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>42834</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>27546</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2429,8 +2829,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>91811</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91811</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2445,17 +2847,25 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
-        <v>46744</v>
-      </c>
-      <c r="J42" t="n">
-        <v>42591</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4153</v>
-      </c>
-      <c r="L42" t="n">
-        <v>27809</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>46744</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>42591</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>27809</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2477,8 +2887,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>92228</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92228</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2493,17 +2905,25 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>47276</v>
-      </c>
-      <c r="J43" t="n">
-        <v>43818</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3458</v>
-      </c>
-      <c r="L43" t="n">
-        <v>27570</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>47276</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>43818</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>27570</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2525,8 +2945,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>92475</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92475</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2541,17 +2963,25 @@
       <c r="H44" t="n">
         <v>3</v>
       </c>
-      <c r="I44" t="n">
-        <v>47362</v>
-      </c>
-      <c r="J44" t="n">
-        <v>44142</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3220</v>
-      </c>
-      <c r="L44" t="n">
-        <v>27643</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>47362</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>44142</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>27643</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2573,8 +3003,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>92033</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92033</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2589,17 +3021,25 @@
       <c r="H45" t="n">
         <v>4</v>
       </c>
-      <c r="I45" t="n">
-        <v>46779</v>
-      </c>
-      <c r="J45" t="n">
-        <v>43897</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2882</v>
-      </c>
-      <c r="L45" t="n">
-        <v>27808</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>46779</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>43897</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>27808</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2621,8 +3061,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>91706</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91706</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2637,17 +3079,25 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>46392</v>
-      </c>
-      <c r="J46" t="n">
-        <v>43255</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3137</v>
-      </c>
-      <c r="L46" t="n">
-        <v>28132</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>46392</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>43255</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3137</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>28132</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2669,8 +3119,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>92152</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92152</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2685,17 +3137,25 @@
       <c r="H47" t="n">
         <v>2</v>
       </c>
-      <c r="I47" t="n">
-        <v>46742</v>
-      </c>
-      <c r="J47" t="n">
-        <v>43820</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2922</v>
-      </c>
-      <c r="L47" t="n">
-        <v>28232</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>46742</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>43820</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>28232</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2717,8 +3177,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>92202</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92202</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2733,17 +3195,25 @@
       <c r="H48" t="n">
         <v>3</v>
       </c>
-      <c r="I48" t="n">
-        <v>46915</v>
-      </c>
-      <c r="J48" t="n">
-        <v>44125</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2790</v>
-      </c>
-      <c r="L48" t="n">
-        <v>28215</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>46915</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>44125</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2790</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>28215</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2765,8 +3235,10 @@
           <t>Branca</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>91784</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91784</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2781,17 +3253,25 @@
       <c r="H49" t="n">
         <v>4</v>
       </c>
-      <c r="I49" t="n">
-        <v>46983</v>
-      </c>
-      <c r="J49" t="n">
-        <v>44227</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2756</v>
-      </c>
-      <c r="L49" t="n">
-        <v>27866</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>46983</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>44227</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2756</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>27866</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2813,8 +3293,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>14921</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14921</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2829,17 +3311,25 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>8075</v>
-      </c>
-      <c r="J50" t="n">
-        <v>7292</v>
-      </c>
-      <c r="K50" t="n">
-        <v>783</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4344</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>8075</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>7292</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2861,8 +3351,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>13845</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13845</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2877,17 +3369,25 @@
       <c r="H51" t="n">
         <v>2</v>
       </c>
-      <c r="I51" t="n">
-        <v>7511</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6786</v>
-      </c>
-      <c r="K51" t="n">
-        <v>725</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4005</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>7511</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>6786</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2909,8 +3409,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>13812</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13812</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2925,17 +3427,25 @@
       <c r="H52" t="n">
         <v>3</v>
       </c>
-      <c r="I52" t="n">
-        <v>7555</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6915</v>
-      </c>
-      <c r="K52" t="n">
-        <v>641</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3975</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>7555</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6915</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2957,8 +3467,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>13790</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13790</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2973,17 +3485,25 @@
       <c r="H53" t="n">
         <v>4</v>
       </c>
-      <c r="I53" t="n">
-        <v>7497</v>
-      </c>
-      <c r="J53" t="n">
-        <v>6849</v>
-      </c>
-      <c r="K53" t="n">
-        <v>649</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4026</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>7497</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6849</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3005,8 +3525,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>13583</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3021,17 +3543,25 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="n">
-        <v>7349</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6614</v>
-      </c>
-      <c r="K54" t="n">
-        <v>734</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3940</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6614</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3053,8 +3583,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>13332</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13332</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3069,17 +3601,25 @@
       <c r="H55" t="n">
         <v>2</v>
       </c>
-      <c r="I55" t="n">
-        <v>7258</v>
-      </c>
-      <c r="J55" t="n">
-        <v>6589</v>
-      </c>
-      <c r="K55" t="n">
-        <v>669</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3958</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>7258</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>6589</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>3958</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3101,8 +3641,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>13931</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13931</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3117,17 +3659,25 @@
       <c r="H56" t="n">
         <v>3</v>
       </c>
-      <c r="I56" t="n">
-        <v>7665</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7032</v>
-      </c>
-      <c r="K56" t="n">
-        <v>633</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4112</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>7665</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>7032</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3149,8 +3699,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>14016</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14016</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3165,17 +3717,25 @@
       <c r="H57" t="n">
         <v>4</v>
       </c>
-      <c r="I57" t="n">
-        <v>7780</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7132</v>
-      </c>
-      <c r="K57" t="n">
-        <v>648</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4124</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>7780</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3197,8 +3757,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>14042</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14042</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3213,17 +3775,25 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="n">
-        <v>7747</v>
-      </c>
-      <c r="J58" t="n">
-        <v>7033</v>
-      </c>
-      <c r="K58" t="n">
-        <v>714</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4153</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>7747</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3245,8 +3815,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>14032</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>14032</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3261,17 +3833,25 @@
       <c r="H59" t="n">
         <v>2</v>
       </c>
-      <c r="I59" t="n">
-        <v>7764</v>
-      </c>
-      <c r="J59" t="n">
-        <v>7082</v>
-      </c>
-      <c r="K59" t="n">
-        <v>681</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4173</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>7764</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>7082</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3293,8 +3873,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>14266</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14266</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3309,17 +3891,25 @@
       <c r="H60" t="n">
         <v>3</v>
       </c>
-      <c r="I60" t="n">
-        <v>7856</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7157</v>
-      </c>
-      <c r="K60" t="n">
-        <v>699</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4265</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>7856</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3341,8 +3931,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>14254</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>14254</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3357,17 +3949,25 @@
       <c r="H61" t="n">
         <v>4</v>
       </c>
-      <c r="I61" t="n">
-        <v>7917</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7280</v>
-      </c>
-      <c r="K61" t="n">
-        <v>637</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4245</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>7917</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3389,8 +3989,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>14229</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>14229</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3405,17 +4007,25 @@
       <c r="H62" t="n">
         <v>1</v>
       </c>
-      <c r="I62" t="n">
-        <v>7928</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7136</v>
-      </c>
-      <c r="K62" t="n">
-        <v>792</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4238</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>7928</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>7136</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3437,8 +4047,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>14236</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>14236</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3453,17 +4065,25 @@
       <c r="H63" t="n">
         <v>2</v>
       </c>
-      <c r="I63" t="n">
-        <v>7982</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7164</v>
-      </c>
-      <c r="K63" t="n">
-        <v>818</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4171</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>7982</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3485,8 +4105,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>14729</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14729</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3501,17 +4123,25 @@
       <c r="H64" t="n">
         <v>3</v>
       </c>
-      <c r="I64" t="n">
-        <v>8269</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7360</v>
-      </c>
-      <c r="K64" t="n">
-        <v>909</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4288</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>8269</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>7360</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>4288</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3533,8 +4163,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>15856</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>15856</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3549,17 +4181,25 @@
       <c r="H65" t="n">
         <v>4</v>
       </c>
-      <c r="I65" t="n">
-        <v>8853</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7849</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1004</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4603</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>8853</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>7849</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3581,8 +4221,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>15748</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>15748</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3597,17 +4239,25 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="n">
-        <v>8823</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7605</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1218</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4509</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>8823</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>7605</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>4509</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3629,8 +4279,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>15834</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>15834</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3645,17 +4297,25 @@
       <c r="H67" t="n">
         <v>2</v>
       </c>
-      <c r="I67" t="n">
-        <v>8859</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7541</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1318</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4563</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>8859</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>7541</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3677,8 +4337,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>15961</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>15961</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3693,17 +4355,25 @@
       <c r="H68" t="n">
         <v>3</v>
       </c>
-      <c r="I68" t="n">
-        <v>8921</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7612</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1310</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4649</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>8921</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>7612</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3725,8 +4395,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>16770</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>16770</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3741,17 +4413,25 @@
       <c r="H69" t="n">
         <v>4</v>
       </c>
-      <c r="I69" t="n">
-        <v>9458</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8078</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1379</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4830</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>9458</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>8078</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3773,8 +4453,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>17123</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>17123</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3789,17 +4471,25 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
-        <v>9675</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8020</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1655</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4878</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>9675</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>8020</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3821,8 +4511,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>16796</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>16796</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3837,17 +4529,25 @@
       <c r="H71" t="n">
         <v>2</v>
       </c>
-      <c r="I71" t="n">
-        <v>9512</v>
-      </c>
-      <c r="J71" t="n">
-        <v>7995</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1517</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4813</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>9512</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>7995</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>4813</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3869,8 +4569,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>16954</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>16954</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3885,17 +4587,25 @@
       <c r="H72" t="n">
         <v>3</v>
       </c>
-      <c r="I72" t="n">
-        <v>9611</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8152</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1459</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4814</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>9611</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>8152</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3917,8 +4627,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>18043</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3933,17 +4645,25 @@
       <c r="H73" t="n">
         <v>4</v>
       </c>
-      <c r="I73" t="n">
-        <v>10233</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8741</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1493</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5088</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10233</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1493</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>5088</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3965,8 +4685,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>18003</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>18003</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3981,17 +4703,25 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>10065</v>
-      </c>
-      <c r="J74" t="n">
-        <v>8448</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1617</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5206</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10065</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>8448</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>5206</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -4013,8 +4743,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>18236</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>18236</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4029,17 +4761,25 @@
       <c r="H75" t="n">
         <v>2</v>
       </c>
-      <c r="I75" t="n">
-        <v>10277</v>
-      </c>
-      <c r="J75" t="n">
-        <v>8722</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1555</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5295</v>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>10277</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>8722</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -4061,8 +4801,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>18318</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>18318</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4077,17 +4819,25 @@
       <c r="H76" t="n">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
-        <v>10410</v>
-      </c>
-      <c r="J76" t="n">
-        <v>8881</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1530</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5187</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>8881</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>5187</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4109,8 +4859,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>19258</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>19258</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4125,17 +4877,25 @@
       <c r="H77" t="n">
         <v>4</v>
       </c>
-      <c r="I77" t="n">
-        <v>10926</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9325</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1601</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5548</v>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>10926</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>9325</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4157,8 +4917,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>19365</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>19365</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4173,17 +4935,25 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="n">
-        <v>10899</v>
-      </c>
-      <c r="J78" t="n">
-        <v>9141</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1758</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5513</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10899</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>9141</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>5513</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4205,8 +4975,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>19346</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>19346</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4221,17 +4993,25 @@
       <c r="H79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="n">
-        <v>10991</v>
-      </c>
-      <c r="J79" t="n">
-        <v>9389</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1602</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5481</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>10991</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>5481</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4253,8 +5033,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>18991</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>18991</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4269,17 +5051,25 @@
       <c r="H80" t="n">
         <v>3</v>
       </c>
-      <c r="I80" t="n">
-        <v>10887</v>
-      </c>
-      <c r="J80" t="n">
-        <v>9257</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1630</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5323</v>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>10887</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>9257</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -4301,8 +5091,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>19965</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>19965</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4317,17 +5109,25 @@
       <c r="H81" t="n">
         <v>4</v>
       </c>
-      <c r="I81" t="n">
-        <v>11456</v>
-      </c>
-      <c r="J81" t="n">
-        <v>9887</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1568</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5607</v>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>11456</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>9887</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -4349,8 +5149,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>19514</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>19514</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4365,17 +5167,25 @@
       <c r="H82" t="n">
         <v>1</v>
       </c>
-      <c r="I82" t="n">
-        <v>11033</v>
-      </c>
-      <c r="J82" t="n">
-        <v>9341</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1692</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5593</v>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>11033</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1692</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -4397,8 +5207,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>18458</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>18458</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4413,17 +5225,25 @@
       <c r="H83" t="n">
         <v>2</v>
       </c>
-      <c r="I83" t="n">
-        <v>9475</v>
-      </c>
-      <c r="J83" t="n">
-        <v>7763</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1712</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6296</v>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>9475</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>7763</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>6296</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -4445,8 +5265,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>18534</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>18534</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4461,17 +5283,25 @@
       <c r="H84" t="n">
         <v>3</v>
       </c>
-      <c r="I84" t="n">
-        <v>9635</v>
-      </c>
-      <c r="J84" t="n">
-        <v>7763</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1872</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6218</v>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>9635</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>7763</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>6218</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -4493,8 +5323,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>18668</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>18668</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4509,17 +5341,25 @@
       <c r="H85" t="n">
         <v>4</v>
       </c>
-      <c r="I85" t="n">
-        <v>10021</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8251</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1771</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5973</v>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>8251</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>5973</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -4541,8 +5381,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>18628</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>18628</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4557,17 +5399,25 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="n">
-        <v>10131</v>
-      </c>
-      <c r="J86" t="n">
-        <v>8229</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1902</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5747</v>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>10131</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>8229</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>5747</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4589,8 +5439,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>18898</v>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>18898</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4605,17 +5457,25 @@
       <c r="H87" t="n">
         <v>2</v>
       </c>
-      <c r="I87" t="n">
-        <v>10533</v>
-      </c>
-      <c r="J87" t="n">
-        <v>8763</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1770</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5756</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>10533</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>8763</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>5756</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4637,8 +5497,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>20030</v>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20030</t>
+        </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4653,17 +5515,25 @@
       <c r="H88" t="n">
         <v>3</v>
       </c>
-      <c r="I88" t="n">
-        <v>11381</v>
-      </c>
-      <c r="J88" t="n">
-        <v>9583</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1799</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5848</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>11381</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>9583</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4685,8 +5555,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>20857</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20857</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4701,17 +5573,25 @@
       <c r="H89" t="n">
         <v>4</v>
       </c>
-      <c r="I89" t="n">
-        <v>11908</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10288</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1620</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6040</v>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>11908</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>6040</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4733,8 +5613,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>21431</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21431</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4749,17 +5631,25 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="n">
-        <v>12082</v>
-      </c>
-      <c r="J90" t="n">
-        <v>10480</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1602</v>
-      </c>
-      <c r="L90" t="n">
-        <v>6388</v>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>12082</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>10480</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>6388</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4781,8 +5671,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>21723</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21723</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4797,17 +5689,25 @@
       <c r="H91" t="n">
         <v>2</v>
       </c>
-      <c r="I91" t="n">
-        <v>12345</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10951</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1394</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6411</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>10951</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>6411</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4829,8 +5729,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>22058</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22058</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4845,17 +5747,25 @@
       <c r="H92" t="n">
         <v>3</v>
       </c>
-      <c r="I92" t="n">
-        <v>12620</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11216</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1404</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6513</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>11216</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>6513</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4877,8 +5787,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>22347</v>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22347</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4893,17 +5805,25 @@
       <c r="H93" t="n">
         <v>4</v>
       </c>
-      <c r="I93" t="n">
-        <v>12635</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11384</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1251</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6743</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>12635</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>11384</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>6743</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4925,8 +5845,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>22577</v>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22577</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4941,17 +5863,25 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="n">
-        <v>12700</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11263</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1437</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6813</v>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>12700</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>11263</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>6813</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4973,8 +5903,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>22283</v>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22283</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4989,17 +5921,25 @@
       <c r="H95" t="n">
         <v>2</v>
       </c>
-      <c r="I95" t="n">
-        <v>12505</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11250</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1254</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6768</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>12505</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>11250</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>6768</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -5021,8 +5961,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>22219</v>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22219</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5037,17 +5979,25 @@
       <c r="H96" t="n">
         <v>3</v>
       </c>
-      <c r="I96" t="n">
-        <v>12459</v>
-      </c>
-      <c r="J96" t="n">
-        <v>11261</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1198</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6689</v>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>11261</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>6689</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -5069,8 +6019,10 @@
           <t>Preta</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>22618</v>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22618</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5085,17 +6037,25 @@
       <c r="H97" t="n">
         <v>4</v>
       </c>
-      <c r="I97" t="n">
-        <v>12819</v>
-      </c>
-      <c r="J97" t="n">
-        <v>11672</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1147</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6663</v>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>12819</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>11672</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6663</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -5117,8 +6077,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>88400</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88400</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5133,17 +6095,25 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="n">
-        <v>40929</v>
-      </c>
-      <c r="J98" t="n">
-        <v>37176</v>
-      </c>
-      <c r="K98" t="n">
-        <v>3753</v>
-      </c>
-      <c r="L98" t="n">
-        <v>25749</v>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>40929</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>37176</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>25749</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -5165,8 +6135,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>91212</v>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91212</t>
+        </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5181,17 +6153,25 @@
       <c r="H99" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="n">
-        <v>42586</v>
-      </c>
-      <c r="J99" t="n">
-        <v>38854</v>
-      </c>
-      <c r="K99" t="n">
-        <v>3732</v>
-      </c>
-      <c r="L99" t="n">
-        <v>26512</v>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>42586</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>38854</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>26512</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -5213,8 +6193,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>91990</v>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91990</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5229,17 +6211,25 @@
       <c r="H100" t="n">
         <v>3</v>
       </c>
-      <c r="I100" t="n">
-        <v>42826</v>
-      </c>
-      <c r="J100" t="n">
-        <v>39217</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3609</v>
-      </c>
-      <c r="L100" t="n">
-        <v>26898</v>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>42826</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>39217</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>26898</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -5261,8 +6251,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>93343</v>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93343</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5277,17 +6269,25 @@
       <c r="H101" t="n">
         <v>4</v>
       </c>
-      <c r="I101" t="n">
-        <v>43352</v>
-      </c>
-      <c r="J101" t="n">
-        <v>39814</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3538</v>
-      </c>
-      <c r="L101" t="n">
-        <v>27425</v>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>43352</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>39814</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>3538</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>27425</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -5309,8 +6309,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>94388</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94388</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5325,17 +6327,25 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="n">
-        <v>44077</v>
-      </c>
-      <c r="J102" t="n">
-        <v>39884</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4193</v>
-      </c>
-      <c r="L102" t="n">
-        <v>27814</v>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>44077</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>39884</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>27814</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -5357,8 +6367,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>94461</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94461</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5373,17 +6385,25 @@
       <c r="H103" t="n">
         <v>2</v>
       </c>
-      <c r="I103" t="n">
-        <v>44256</v>
-      </c>
-      <c r="J103" t="n">
-        <v>40338</v>
-      </c>
-      <c r="K103" t="n">
-        <v>3918</v>
-      </c>
-      <c r="L103" t="n">
-        <v>27784</v>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>44256</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>40338</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>27784</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -5405,8 +6425,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>92960</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92960</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5421,17 +6443,25 @@
       <c r="H104" t="n">
         <v>3</v>
       </c>
-      <c r="I104" t="n">
-        <v>43591</v>
-      </c>
-      <c r="J104" t="n">
-        <v>40002</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3590</v>
-      </c>
-      <c r="L104" t="n">
-        <v>27533</v>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>43591</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>40002</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>3590</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>27533</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -5453,8 +6483,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>93831</v>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93831</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5469,17 +6501,25 @@
       <c r="H105" t="n">
         <v>4</v>
       </c>
-      <c r="I105" t="n">
-        <v>43899</v>
-      </c>
-      <c r="J105" t="n">
-        <v>40752</v>
-      </c>
-      <c r="K105" t="n">
-        <v>3148</v>
-      </c>
-      <c r="L105" t="n">
-        <v>27813</v>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>43899</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>40752</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>3148</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>27813</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -5501,8 +6541,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>93873</v>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93873</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5517,17 +6559,25 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>44110</v>
-      </c>
-      <c r="J106" t="n">
-        <v>40415</v>
-      </c>
-      <c r="K106" t="n">
-        <v>3695</v>
-      </c>
-      <c r="L106" t="n">
-        <v>27740</v>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>44110</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>40415</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>27740</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -5549,8 +6599,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>94535</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94535</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5565,17 +6617,25 @@
       <c r="H107" t="n">
         <v>2</v>
       </c>
-      <c r="I107" t="n">
-        <v>44480</v>
-      </c>
-      <c r="J107" t="n">
-        <v>40907</v>
-      </c>
-      <c r="K107" t="n">
-        <v>3574</v>
-      </c>
-      <c r="L107" t="n">
-        <v>27878</v>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>44480</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>40907</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>3574</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>27878</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -5597,8 +6657,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>95172</v>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95172</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5613,17 +6675,25 @@
       <c r="H108" t="n">
         <v>3</v>
       </c>
-      <c r="I108" t="n">
-        <v>44857</v>
-      </c>
-      <c r="J108" t="n">
-        <v>41359</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3498</v>
-      </c>
-      <c r="L108" t="n">
-        <v>28245</v>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>44857</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>41359</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>28245</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -5645,8 +6715,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>95478</v>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95478</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5661,17 +6733,25 @@
       <c r="H109" t="n">
         <v>4</v>
       </c>
-      <c r="I109" t="n">
-        <v>44935</v>
-      </c>
-      <c r="J109" t="n">
-        <v>41551</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3384</v>
-      </c>
-      <c r="L109" t="n">
-        <v>28440</v>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>44935</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>41551</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>3384</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>28440</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -5693,8 +6773,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>96293</v>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>96293</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5709,17 +6791,25 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="n">
-        <v>45597</v>
-      </c>
-      <c r="J110" t="n">
-        <v>41370</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4226</v>
-      </c>
-      <c r="L110" t="n">
-        <v>28655</v>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>45597</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>41370</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>28655</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5741,8 +6831,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>95748</v>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95748</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5757,17 +6849,25 @@
       <c r="H111" t="n">
         <v>2</v>
       </c>
-      <c r="I111" t="n">
-        <v>45547</v>
-      </c>
-      <c r="J111" t="n">
-        <v>41114</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4433</v>
-      </c>
-      <c r="L111" t="n">
-        <v>28392</v>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>45547</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>41114</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>28392</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -5789,8 +6889,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>95424</v>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95424</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5805,17 +6907,25 @@
       <c r="H112" t="n">
         <v>3</v>
       </c>
-      <c r="I112" t="n">
-        <v>45715</v>
-      </c>
-      <c r="J112" t="n">
-        <v>40946</v>
-      </c>
-      <c r="K112" t="n">
-        <v>4770</v>
-      </c>
-      <c r="L112" t="n">
-        <v>28154</v>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>45715</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>40946</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>28154</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5837,8 +6947,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>94800</v>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94800</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5853,17 +6965,25 @@
       <c r="H113" t="n">
         <v>4</v>
       </c>
-      <c r="I113" t="n">
-        <v>45133</v>
-      </c>
-      <c r="J113" t="n">
-        <v>40463</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4670</v>
-      </c>
-      <c r="L113" t="n">
-        <v>28295</v>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>45133</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>40463</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>4670</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>28295</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5885,8 +7005,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>96274</v>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>96274</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5901,17 +7023,25 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="n">
-        <v>45901</v>
-      </c>
-      <c r="J114" t="n">
-        <v>40036</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5866</v>
-      </c>
-      <c r="L114" t="n">
-        <v>28627</v>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>45901</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>40036</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>5866</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>28627</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5933,8 +7063,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>95725</v>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95725</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5949,17 +7081,25 @@
       <c r="H115" t="n">
         <v>2</v>
       </c>
-      <c r="I115" t="n">
-        <v>45744</v>
-      </c>
-      <c r="J115" t="n">
-        <v>39807</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5937</v>
-      </c>
-      <c r="L115" t="n">
-        <v>28659</v>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>45744</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>39807</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>5937</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>28659</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5981,8 +7121,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>96491</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>96491</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5997,17 +7139,25 @@
       <c r="H116" t="n">
         <v>3</v>
       </c>
-      <c r="I116" t="n">
-        <v>45774</v>
-      </c>
-      <c r="J116" t="n">
-        <v>39486</v>
-      </c>
-      <c r="K116" t="n">
-        <v>6288</v>
-      </c>
-      <c r="L116" t="n">
-        <v>29219</v>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>45774</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>39486</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>6288</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>29219</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -6029,8 +7179,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>97494</v>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>97494</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6045,17 +7197,25 @@
       <c r="H117" t="n">
         <v>4</v>
       </c>
-      <c r="I117" t="n">
-        <v>46338</v>
-      </c>
-      <c r="J117" t="n">
-        <v>39746</v>
-      </c>
-      <c r="K117" t="n">
-        <v>6591</v>
-      </c>
-      <c r="L117" t="n">
-        <v>29546</v>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>46338</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>39746</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>6591</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>29546</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -6077,8 +7237,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>97595</v>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97595</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6093,17 +7255,25 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="n">
-        <v>46421</v>
-      </c>
-      <c r="J118" t="n">
-        <v>38937</v>
-      </c>
-      <c r="K118" t="n">
-        <v>7484</v>
-      </c>
-      <c r="L118" t="n">
-        <v>29649</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>46421</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>38937</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>7484</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>29649</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -6125,8 +7295,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>98204</v>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98204</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6141,17 +7313,25 @@
       <c r="H119" t="n">
         <v>2</v>
       </c>
-      <c r="I119" t="n">
-        <v>47285</v>
-      </c>
-      <c r="J119" t="n">
-        <v>40096</v>
-      </c>
-      <c r="K119" t="n">
-        <v>7189</v>
-      </c>
-      <c r="L119" t="n">
-        <v>29544</v>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>47285</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>40096</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>29544</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -6173,8 +7353,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>97821</v>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97821</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6189,17 +7371,25 @@
       <c r="H120" t="n">
         <v>3</v>
       </c>
-      <c r="I120" t="n">
-        <v>47341</v>
-      </c>
-      <c r="J120" t="n">
-        <v>40461</v>
-      </c>
-      <c r="K120" t="n">
-        <v>6880</v>
-      </c>
-      <c r="L120" t="n">
-        <v>29470</v>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>47341</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>40461</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>6880</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>29470</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -6221,8 +7411,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>98071</v>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98071</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6237,17 +7429,25 @@
       <c r="H121" t="n">
         <v>4</v>
       </c>
-      <c r="I121" t="n">
-        <v>47427</v>
-      </c>
-      <c r="J121" t="n">
-        <v>40949</v>
-      </c>
-      <c r="K121" t="n">
-        <v>6478</v>
-      </c>
-      <c r="L121" t="n">
-        <v>29610</v>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>47427</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>40949</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>6478</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>29610</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -6269,8 +7469,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>98915</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98915</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6285,17 +7487,25 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="n">
-        <v>47999</v>
-      </c>
-      <c r="J122" t="n">
-        <v>40685</v>
-      </c>
-      <c r="K122" t="n">
-        <v>7315</v>
-      </c>
-      <c r="L122" t="n">
-        <v>29804</v>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>47999</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>40685</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -6317,8 +7527,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>98346</v>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98346</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6333,17 +7545,25 @@
       <c r="H123" t="n">
         <v>2</v>
       </c>
-      <c r="I123" t="n">
-        <v>47412</v>
-      </c>
-      <c r="J123" t="n">
-        <v>40515</v>
-      </c>
-      <c r="K123" t="n">
-        <v>6897</v>
-      </c>
-      <c r="L123" t="n">
-        <v>29942</v>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>47412</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>40515</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>6897</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>29942</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -6365,8 +7585,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>98317</v>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98317</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6381,17 +7603,25 @@
       <c r="H124" t="n">
         <v>3</v>
       </c>
-      <c r="I124" t="n">
-        <v>47791</v>
-      </c>
-      <c r="J124" t="n">
-        <v>41137</v>
-      </c>
-      <c r="K124" t="n">
-        <v>6654</v>
-      </c>
-      <c r="L124" t="n">
-        <v>29680</v>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>47791</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>41137</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>6654</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>29680</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -6413,8 +7643,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>98458</v>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98458</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6429,17 +7661,25 @@
       <c r="H125" t="n">
         <v>4</v>
       </c>
-      <c r="I125" t="n">
-        <v>47874</v>
-      </c>
-      <c r="J125" t="n">
-        <v>41445</v>
-      </c>
-      <c r="K125" t="n">
-        <v>6429</v>
-      </c>
-      <c r="L125" t="n">
-        <v>29458</v>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>47874</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>41445</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>6429</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>29458</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -6461,8 +7701,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>98908</v>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98908</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6477,17 +7719,25 @@
       <c r="H126" t="n">
         <v>1</v>
       </c>
-      <c r="I126" t="n">
-        <v>47944</v>
-      </c>
-      <c r="J126" t="n">
-        <v>40920</v>
-      </c>
-      <c r="K126" t="n">
-        <v>7025</v>
-      </c>
-      <c r="L126" t="n">
-        <v>29823</v>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>47944</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>40920</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>29823</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -6509,8 +7759,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>98953</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98953</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6525,17 +7777,25 @@
       <c r="H127" t="n">
         <v>2</v>
       </c>
-      <c r="I127" t="n">
-        <v>48400</v>
-      </c>
-      <c r="J127" t="n">
-        <v>41583</v>
-      </c>
-      <c r="K127" t="n">
-        <v>6816</v>
-      </c>
-      <c r="L127" t="n">
-        <v>29508</v>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>48400</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>41583</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>29508</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -6557,8 +7817,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>99650</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>99650</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6573,17 +7835,25 @@
       <c r="H128" t="n">
         <v>3</v>
       </c>
-      <c r="I128" t="n">
-        <v>49052</v>
-      </c>
-      <c r="J128" t="n">
-        <v>42297</v>
-      </c>
-      <c r="K128" t="n">
-        <v>6755</v>
-      </c>
-      <c r="L128" t="n">
-        <v>29544</v>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>49052</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>42297</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>6755</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>29544</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -6605,8 +7875,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>100154</v>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>100154</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6621,17 +7893,25 @@
       <c r="H129" t="n">
         <v>4</v>
       </c>
-      <c r="I129" t="n">
-        <v>48786</v>
-      </c>
-      <c r="J129" t="n">
-        <v>42591</v>
-      </c>
-      <c r="K129" t="n">
-        <v>6195</v>
-      </c>
-      <c r="L129" t="n">
-        <v>30187</v>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>48786</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>42591</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>6195</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>30187</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -6653,8 +7933,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>100124</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>100124</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6669,17 +7951,25 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="n">
-        <v>48105</v>
-      </c>
-      <c r="J130" t="n">
-        <v>41308</v>
-      </c>
-      <c r="K130" t="n">
-        <v>6798</v>
-      </c>
-      <c r="L130" t="n">
-        <v>30712</v>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>48105</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>41308</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>30712</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -6701,8 +7991,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>99973</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>99973</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6717,17 +8009,25 @@
       <c r="H131" t="n">
         <v>2</v>
       </c>
-      <c r="I131" t="n">
-        <v>43298</v>
-      </c>
-      <c r="J131" t="n">
-        <v>36502</v>
-      </c>
-      <c r="K131" t="n">
-        <v>6797</v>
-      </c>
-      <c r="L131" t="n">
-        <v>35328</v>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>43298</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>36502</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>6797</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>35328</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -6749,8 +8049,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>99394</v>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>99394</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6765,17 +8067,25 @@
       <c r="H132" t="n">
         <v>3</v>
       </c>
-      <c r="I132" t="n">
-        <v>44036</v>
-      </c>
-      <c r="J132" t="n">
-        <v>36630</v>
-      </c>
-      <c r="K132" t="n">
-        <v>7406</v>
-      </c>
-      <c r="L132" t="n">
-        <v>34410</v>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>44036</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>36630</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>7406</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>34410</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -6797,8 +8107,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>98609</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98609</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6813,17 +8125,25 @@
       <c r="H133" t="n">
         <v>4</v>
       </c>
-      <c r="I133" t="n">
-        <v>45257</v>
-      </c>
-      <c r="J133" t="n">
-        <v>37997</v>
-      </c>
-      <c r="K133" t="n">
-        <v>7260</v>
-      </c>
-      <c r="L133" t="n">
-        <v>32312</v>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>45257</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>37997</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>7260</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>32312</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -6845,8 +8165,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>98947</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>98947</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6861,17 +8183,25 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="n">
-        <v>45865</v>
-      </c>
-      <c r="J134" t="n">
-        <v>38062</v>
-      </c>
-      <c r="K134" t="n">
-        <v>7803</v>
-      </c>
-      <c r="L134" t="n">
-        <v>32133</v>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>45865</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>38062</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>7803</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>32133</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -6893,8 +8223,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>99003</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>99003</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6909,17 +8241,25 @@
       <c r="H135" t="n">
         <v>2</v>
       </c>
-      <c r="I135" t="n">
-        <v>46497</v>
-      </c>
-      <c r="J135" t="n">
-        <v>38959</v>
-      </c>
-      <c r="K135" t="n">
-        <v>7538</v>
-      </c>
-      <c r="L135" t="n">
-        <v>31655</v>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>46497</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>38959</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>7538</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>31655</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -6941,8 +8281,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>98425</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98425</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6957,17 +8299,25 @@
       <c r="H136" t="n">
         <v>3</v>
       </c>
-      <c r="I136" t="n">
-        <v>47297</v>
-      </c>
-      <c r="J136" t="n">
-        <v>40574</v>
-      </c>
-      <c r="K136" t="n">
-        <v>6723</v>
-      </c>
-      <c r="L136" t="n">
-        <v>30630</v>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>47297</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>40574</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>30630</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -6989,8 +8339,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>98062</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>98062</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7005,17 +8357,25 @@
       <c r="H137" t="n">
         <v>4</v>
       </c>
-      <c r="I137" t="n">
-        <v>47458</v>
-      </c>
-      <c r="J137" t="n">
-        <v>41455</v>
-      </c>
-      <c r="K137" t="n">
-        <v>6003</v>
-      </c>
-      <c r="L137" t="n">
-        <v>30159</v>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>47458</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>41455</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>6003</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>30159</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -7037,8 +8397,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>97931</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>97931</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7053,17 +8415,25 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
-      <c r="I138" t="n">
-        <v>47161</v>
-      </c>
-      <c r="J138" t="n">
-        <v>41094</v>
-      </c>
-      <c r="K138" t="n">
-        <v>6067</v>
-      </c>
-      <c r="L138" t="n">
-        <v>30464</v>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>47161</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>41094</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>6067</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>30464</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -7085,8 +8455,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>97619</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>97619</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7101,17 +8473,25 @@
       <c r="H139" t="n">
         <v>2</v>
       </c>
-      <c r="I139" t="n">
-        <v>47492</v>
-      </c>
-      <c r="J139" t="n">
-        <v>42365</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5127</v>
-      </c>
-      <c r="L139" t="n">
-        <v>29944</v>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>47492</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>42365</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>29944</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -7133,8 +8513,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>97301</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97301</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7149,17 +8531,25 @@
       <c r="H140" t="n">
         <v>3</v>
       </c>
-      <c r="I140" t="n">
-        <v>47428</v>
-      </c>
-      <c r="J140" t="n">
-        <v>42696</v>
-      </c>
-      <c r="K140" t="n">
-        <v>4732</v>
-      </c>
-      <c r="L140" t="n">
-        <v>29771</v>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>47428</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>42696</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>29771</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -7181,8 +8571,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>97833</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97833</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7197,17 +8589,25 @@
       <c r="H141" t="n">
         <v>4</v>
       </c>
-      <c r="I141" t="n">
-        <v>47257</v>
-      </c>
-      <c r="J141" t="n">
-        <v>42907</v>
-      </c>
-      <c r="K141" t="n">
-        <v>4350</v>
-      </c>
-      <c r="L141" t="n">
-        <v>30525</v>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>47257</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>42907</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>30525</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -7229,8 +8629,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>98319</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98319</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7245,17 +8647,25 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="n">
-        <v>46893</v>
-      </c>
-      <c r="J142" t="n">
-        <v>42136</v>
-      </c>
-      <c r="K142" t="n">
-        <v>4758</v>
-      </c>
-      <c r="L142" t="n">
-        <v>31208</v>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>46893</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>42136</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>4758</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>31208</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -7277,8 +8687,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>98472</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>98472</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7293,17 +8705,25 @@
       <c r="H143" t="n">
         <v>2</v>
       </c>
-      <c r="I143" t="n">
-        <v>47030</v>
-      </c>
-      <c r="J143" t="n">
-        <v>42656</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4374</v>
-      </c>
-      <c r="L143" t="n">
-        <v>31207</v>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>47030</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>42656</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>4374</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>31207</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -7325,8 +8745,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>98849</v>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98849</t>
+        </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7341,17 +8763,25 @@
       <c r="H144" t="n">
         <v>3</v>
       </c>
-      <c r="I144" t="n">
-        <v>47505</v>
-      </c>
-      <c r="J144" t="n">
-        <v>43283</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4222</v>
-      </c>
-      <c r="L144" t="n">
-        <v>31092</v>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>47505</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>43283</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>31092</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -7373,8 +8803,10 @@
           <t>Parda</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>99289</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>99289</t>
+        </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7389,17 +8821,25 @@
       <c r="H145" t="n">
         <v>4</v>
       </c>
-      <c r="I145" t="n">
-        <v>47996</v>
-      </c>
-      <c r="J145" t="n">
-        <v>43896</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4100</v>
-      </c>
-      <c r="L145" t="n">
-        <v>30916</v>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>47996</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>43896</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>30916</t>
+        </is>
       </c>
     </row>
   </sheetData>
